--- a/ОДиМТР/Семинар 4..xlsx
+++ b/ОДиМТР/Семинар 4..xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Desktop\Рабочая папка\ITiABD\ОДиМТР\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589BF1DB-F305-443F-98FE-3FE7A38E9670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B18C13-D880-46F4-BB46-4A20441035EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
